--- a/inst/models/checkimab_simple/model.xlsx
+++ b/inst/models/checkimab_simple/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamdahl/Documents/Code/heRomod2/inst/models/checkimab_simple/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/checkimab_simple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA459DF-A5DE-A645-AF06-6538EABD31C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8428193-7582-1740-8D05-027DCB3FE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="states" sheetId="15" r:id="rId5"/>
     <sheet name="transitions" sheetId="17" r:id="rId6"/>
     <sheet name="values" sheetId="19" r:id="rId7"/>
-    <sheet name="trees" sheetId="25" r:id="rId8"/>
+    <sheet name="summaries" sheetId="26" r:id="rId8"/>
+    <sheet name="trees" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
   <si>
     <t>timeframe</t>
   </si>
@@ -462,12 +463,6 @@
     <t>state_3</t>
   </si>
   <si>
-    <t>lys * 0.8</t>
-  </si>
-  <si>
-    <t>lys * 0.65</t>
-  </si>
-  <si>
     <t>term_cost</t>
   </si>
   <si>
@@ -493,6 +488,69 @@
   </si>
   <si>
     <t>3500 + state_day</t>
+  </si>
+  <si>
+    <t>state1_lys</t>
+  </si>
+  <si>
+    <t>state2_lys</t>
+  </si>
+  <si>
+    <t>state1_qalys</t>
+  </si>
+  <si>
+    <t>state2_qalys</t>
+  </si>
+  <si>
+    <t>med_cost</t>
+  </si>
+  <si>
+    <t>Medication cost</t>
+  </si>
+  <si>
+    <t>med_ucost</t>
+  </si>
+  <si>
+    <t>Cost of medication</t>
+  </si>
+  <si>
+    <t>med_ucost * cycle_length_weeks</t>
+  </si>
+  <si>
+    <t>total_cost</t>
+  </si>
+  <si>
+    <t>State 1 Life-Years</t>
+  </si>
+  <si>
+    <t>State 2 Life-Years</t>
+  </si>
+  <si>
+    <t>State 1 QALYs</t>
+  </si>
+  <si>
+    <t>State 2 QALYs</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>state1_lys, state2_lys</t>
+  </si>
+  <si>
+    <t>state1_qalys, state2_qalys</t>
+  </si>
+  <si>
+    <t>term_cost, screen_cost, med_cost</t>
+  </si>
+  <si>
+    <t>state1_lys * 0.8</t>
+  </si>
+  <si>
+    <t>state2_lys * 0.65</t>
   </si>
 </sst>
 </file>
@@ -749,7 +807,153 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1946,125 +2150,138 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FB90E4A-B701-9349-A2FF-9FA1A4AA80AF}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FB90E4A-B701-9349-A2FF-9FA1A4AA80AF}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="A1:B11" xr:uid="{E95DCB53-1EAD-4C42-A79B-94CAA67662E9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{047CA166-C426-8945-9CE9-15BAE71AF547}" name="setting" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{3EC8FA45-F60E-DB40-98AB-411C79177ED2}" name="value" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{047CA166-C426-8945-9CE9-15BAE71AF547}" name="setting" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{3EC8FA45-F60E-DB40-98AB-411C79177ED2}" name="value" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H570" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H570" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56">
   <autoFilter ref="A1:H570" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C5331D5E-A656-7D47-8018-7642F10E6CA8}" name="name" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{FEA74BC7-2D0A-FF42-8C35-D063305661C6}" name="display_name" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{63526D68-1716-6448-B99B-CEBB86C8242D}" name="description" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{AAB4E451-EEBB-A044-8AD0-9290DF1E2375}" name="strategy" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{3D31035A-B4B1-B64A-87FB-CCC8C775DF25}" name="group" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{427DFF91-8F93-0145-9131-C95DC4252B95}" name="formula" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{10971855-F585-B248-B675-EED7430FEFA2}" name="sampling" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{BFC96336-E3CF-2440-BE04-07C88F5381BB}" name="source" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{C5331D5E-A656-7D47-8018-7642F10E6CA8}" name="name" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{FEA74BC7-2D0A-FF42-8C35-D063305661C6}" name="display_name" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{63526D68-1716-6448-B99B-CEBB86C8242D}" name="description" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{AAB4E451-EEBB-A044-8AD0-9290DF1E2375}" name="strategy" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{3D31035A-B4B1-B64A-87FB-CCC8C775DF25}" name="group" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{427DFF91-8F93-0145-9131-C95DC4252B95}" name="formula" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{10971855-F585-B248-B675-EED7430FEFA2}" name="sampling" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{BFC96336-E3CF-2440-BE04-07C88F5381BB}" name="source" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{848A7D5C-EB27-7A4F-89E3-BE69E0713E83}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{848A7D5C-EB27-7A4F-89E3-BE69E0713E83}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:E2" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D45418EA-2F30-AD4B-9A80-81EA7CFFD3A6}" name="name" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{F15BE751-2E1F-6D45-B6CA-4B36A3DBAF1F}" name="display_name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{2DE37434-05F3-2C49-8B39-6141D82E12D4}" name="description" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{921E3B01-3DE0-B949-9ECA-84145DD4961B}" name="weight" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{2C5B087B-AA5D-8044-9269-45693F645B8A}" name="enabled" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{D45418EA-2F30-AD4B-9A80-81EA7CFFD3A6}" name="name" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{F15BE751-2E1F-6D45-B6CA-4B36A3DBAF1F}" name="display_name" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{2DE37434-05F3-2C49-8B39-6141D82E12D4}" name="description" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{921E3B01-3DE0-B949-9ECA-84145DD4961B}" name="weight" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{2C5B087B-AA5D-8044-9269-45693F645B8A}" name="enabled" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A3735BD8-BE90-F145-B9D1-6F21AD4EC4DD}" name="Table48" displayName="Table48" ref="A1:D15" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A3735BD8-BE90-F145-B9D1-6F21AD4EC4DD}" name="Table48" displayName="Table48" ref="A1:D15" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:D15" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2109DA5-F8C7-1B48-8FA8-9CE2A6E54806}" name="name" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{78BE1725-4B12-FA40-9F4C-A8B91618D230}" name="display_name" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{EB0ED736-D7D3-6D4A-80D8-FFDFD7676DEB}" name="description" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{CE38F532-648B-8E47-9229-7AE2F2A5A3BF}" name="enabled" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{D2109DA5-F8C7-1B48-8FA8-9CE2A6E54806}" name="name" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{78BE1725-4B12-FA40-9F4C-A8B91618D230}" name="display_name" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{EB0ED736-D7D3-6D4A-80D8-FFDFD7676DEB}" name="description" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{CE38F532-648B-8E47-9229-7AE2F2A5A3BF}" name="enabled" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A04C3E6A-433E-0545-80A3-CBB5A6412F2F}" name="Table483" displayName="Table483" ref="A1:H59" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A04C3E6A-433E-0545-80A3-CBB5A6412F2F}" name="Table483" displayName="Table483" ref="A1:H59" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:H59" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{11FBCC06-DBFA-A941-9390-FDA6DFC2DF08}" name="name" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F1165C82-7EB6-3C4E-A6D0-9C7580824800}" name="display_name" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{921BCE85-2052-2041-AA5B-3EF268AF0D24}" name="description" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{11FBCC06-DBFA-A941-9390-FDA6DFC2DF08}" name="name" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{F1165C82-7EB6-3C4E-A6D0-9C7580824800}" name="display_name" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{921BCE85-2052-2041-AA5B-3EF268AF0D24}" name="description" dataDxfId="30"/>
     <tableColumn id="5" xr3:uid="{C80C7590-8767-2844-BE04-8DED1FE1D657}" name="initial_probability"/>
     <tableColumn id="7" xr3:uid="{B9A684F9-BC62-284E-89EE-1142A552E18D}" name="state_group"/>
     <tableColumn id="8" xr3:uid="{88DA97B5-C90D-B744-B0A5-283879E36586}" name="share_state_time"/>
     <tableColumn id="6" xr3:uid="{A2855E5E-974C-BC49-8A0D-412678CF7025}" name="state_cycle_limit"/>
-    <tableColumn id="3" xr3:uid="{F3470966-7A21-5646-A493-EB3471A72394}" name="state_cycle_limit_unit" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F3470966-7A21-5646-A493-EB3471A72394}" name="state_cycle_limit_unit" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B6E7DE9-CD7F-6E42-B919-E2DF8C38677A}" name="Table46" displayName="Table46" ref="A1:C834" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B6E7DE9-CD7F-6E42-B919-E2DF8C38677A}" name="Table46" displayName="Table46" ref="A1:C834" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:C834" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{3643A0C0-1026-FE40-928C-1466B6129A34}" name="from" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{FCBCD6F9-C7A9-0541-A8CE-8C5A36C85513}" name="to" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{1DD2E99C-F1FD-2A44-BC9A-ED02B82B9DBB}" name="formula" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{3643A0C0-1026-FE40-928C-1466B6129A34}" name="from" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{FCBCD6F9-C7A9-0541-A8CE-8C5A36C85513}" name="to" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{1DD2E99C-F1FD-2A44-BC9A-ED02B82B9DBB}" name="formula" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:F303" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:F303" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A1:F303" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
     <tableColumn id="8" xr3:uid="{8343C940-2875-BA40-A132-F400DC5948E0}" name="destination"/>
-    <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60CDC39D-76F6-3B48-8C1E-DCB1A59DC4BF}" name="Table179" displayName="Table179" ref="A1:D303" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D303" xr:uid="{60CDC39D-76F6-3B48-8C1E-DCB1A59DC4BF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1EA1A96D-97FC-AD4A-AAA4-0BA334ABA038}" name="name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6CEC1B61-732D-9741-8CCA-B2EAB272C4A6}" name="display_name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D3E307AF-757B-4946-A56B-B81048253628}" name="description" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F06D1A7D-5B1B-6F44-9249-4064DBF01DD9}" name="values" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:H21" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5A92BCCF-2D48-7D49-BC23-029150AE8ABB}" name="name" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{AD92914F-B30F-CE49-9D84-7B07FD950E75}" name="display_name" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{AC4425F3-F763-3646-9F56-DCDFD124A4D0}" name="description" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2930608C-B19F-C641-8BE7-0C18493B68D0}" name="node" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BCD7B83C-5C0C-9546-A895-99F1E3EA4FFD}" name="parent" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5A92BCCF-2D48-7D49-BC23-029150AE8ABB}" name="name" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{AD92914F-B30F-CE49-9D84-7B07FD950E75}" name="display_name" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{AC4425F3-F763-3646-9F56-DCDFD124A4D0}" name="description" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{2930608C-B19F-C641-8BE7-0C18493B68D0}" name="node" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BCD7B83C-5C0C-9546-A895-99F1E3EA4FFD}" name="parent" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2102,7 +2319,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2208,7 +2425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2350,7 +2567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2457,7 +2674,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="3">
         <v>365.25</v>
@@ -2476,7 +2693,7 @@
   <dimension ref="A1:H570"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3038,20 +3255,42 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="E28" s="12"/>
+      <c r="F28">
+        <v>1000</v>
+      </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="E29" s="12"/>
+      <c r="F29">
+        <v>124</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
@@ -9054,7 +9293,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9080,7 +9319,7 @@
         <v>115</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>9</v>
@@ -9088,6 +9327,191 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1978E0F1-2ABF-1E4A-BE95-5E0ECD17136C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>116</v>
       </c>
       <c r="B2" t="s">
@@ -9097,128 +9521,56 @@
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -9226,7 +9578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7FBD6-A0DC-8E4C-95D4-7A1E357C0E0B}">
   <dimension ref="A1:J9"/>
   <sheetViews>

--- a/inst/models/checkimab_simple/model.xlsx
+++ b/inst/models/checkimab_simple/model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/checkimab_simple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8428193-7582-1740-8D05-027DCB3FE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D964B49-FEB8-444C-9DA0-1C2BC7D25192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="173">
   <si>
     <t>timeframe</t>
   </si>
@@ -551,6 +551,15 @@
   </si>
   <si>
     <t>state2_lys * 0.65</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
 </sst>
 </file>
@@ -825,152 +834,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1139,6 +1002,152 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2234,12 +2243,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:F303" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="A1:F303" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:G303" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A1:G303" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{1694678B-2FFA-084F-98B2-C02268B3F7B1}" name="type"/>
     <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
     <tableColumn id="8" xr3:uid="{8343C940-2875-BA40-A132-F400DC5948E0}" name="destination"/>
     <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="17"/>
@@ -2249,30 +2259,30 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60CDC39D-76F6-3B48-8C1E-DCB1A59DC4BF}" name="Table179" displayName="Table179" ref="A1:D303" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60CDC39D-76F6-3B48-8C1E-DCB1A59DC4BF}" name="Table179" displayName="Table179" ref="A1:D303" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:D303" xr:uid="{60CDC39D-76F6-3B48-8C1E-DCB1A59DC4BF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1EA1A96D-97FC-AD4A-AAA4-0BA334ABA038}" name="name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6CEC1B61-732D-9741-8CCA-B2EAB272C4A6}" name="display_name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D3E307AF-757B-4946-A56B-B81048253628}" name="description" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{F06D1A7D-5B1B-6F44-9249-4064DBF01DD9}" name="values" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1EA1A96D-97FC-AD4A-AAA4-0BA334ABA038}" name="name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6CEC1B61-732D-9741-8CCA-B2EAB272C4A6}" name="display_name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D3E307AF-757B-4946-A56B-B81048253628}" name="description" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F06D1A7D-5B1B-6F44-9249-4064DBF01DD9}" name="values" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H21" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5A92BCCF-2D48-7D49-BC23-029150AE8ABB}" name="name" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{AD92914F-B30F-CE49-9D84-7B07FD950E75}" name="display_name" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{AC4425F3-F763-3646-9F56-DCDFD124A4D0}" name="description" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{2930608C-B19F-C641-8BE7-0C18493B68D0}" name="node" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{BCD7B83C-5C0C-9546-A895-99F1E3EA4FFD}" name="parent" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5A92BCCF-2D48-7D49-BC23-029150AE8ABB}" name="name" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{AD92914F-B30F-CE49-9D84-7B07FD950E75}" name="display_name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{AC4425F3-F763-3646-9F56-DCDFD124A4D0}" name="description" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2930608C-B19F-C641-8BE7-0C18493B68D0}" name="node" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BCD7B83C-5C0C-9546-A895-99F1E3EA4FFD}" name="parent" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9290,10 +9300,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D78FB-8401-9E4C-9EB5-A7C336F3C948}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9301,11 +9311,12 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="89" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -9316,16 +9327,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -9336,13 +9350,16 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
         <v>137</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -9353,13 +9370,16 @@
         <v>160</v>
       </c>
       <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
         <v>138</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -9370,13 +9390,16 @@
         <v>161</v>
       </c>
       <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
         <v>137</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -9387,13 +9410,16 @@
         <v>162</v>
       </c>
       <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
         <v>138</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -9404,16 +9430,19 @@
         <v>142</v>
       </c>
       <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -9424,16 +9453,19 @@
         <v>142</v>
       </c>
       <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
         <v>138</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -9443,11 +9475,14 @@
       <c r="C8" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="1">
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="1">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -9458,17 +9493,20 @@
         <v>156</v>
       </c>
       <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -9835,4 +9873,10 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{2d40fa44-05dd-4301-91b0-81b668a97c30}" enabled="1" method="Standard" siteId="{4a33c544-865e-44a4-836f-bc51800f6c5e}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>